--- a/pfSense TrafficShaping Shape Calculator/TrafficShaping Shape Calc.xlsx
+++ b/pfSense TrafficShaping Shape Calculator/TrafficShaping Shape Calc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Entwicklung\GIT\gecomp\gecomp_sql_tools\pfSense TrafficShaping Shape Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90AE9FB-17BD-4F78-AE29-9F5338AC5107}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F9AC4E-B9DD-46C1-B307-9BCBCE6D4F16}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{A0382A57-11B3-466C-AFCB-C7F203560B19}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
   <si>
     <t>Download</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>qSystem</t>
+  </si>
+  <si>
+    <t>ACK %vonVolumen</t>
   </si>
 </sst>
 </file>
@@ -119,7 +122,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,6 +132,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -145,9 +154,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -553,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCF5154-5B37-4138-82DB-6540C61B2E82}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -564,7 +574,7 @@
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -583,39 +593,45 @@
       <c r="H1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1">
-        <v>24</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2">
+        <v>200</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
       <c r="G2" s="1">
         <v>2</v>
       </c>
       <c r="H2" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
       <c r="G3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>16</v>
       </c>
@@ -626,61 +642,61 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6">
         <f>IF(ISNUMBER($B$2)=TRUE(),$B$2*1024,IF(ISNUMBER($C$2)=TRUE(),$C$2,IF(ISNUMBER($D$2)=TRUE(),$D$2/1024,0)))</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <f>ROUNDUP((27/1024*$B$22),3)</f>
-        <v>0.159</v>
+        <f>IF(ISNUMBER(I2)=TRUE(),ROUNDUP(B6*I2/100,3),ROUNDUP((27/1024*$B$22),3))</f>
+        <v>40</v>
       </c>
       <c r="C7">
-        <f>ROUNDUP((2700/1024*$B$22)/$B$6,3)</f>
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <f>IF(ISNUMBER(I2)=TRUE(),ROUNDUP(I2,3),ROUNDUP((2700/1024*$B$22)/$B$6,3))</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
       <c r="B8">
         <f>ROUNDUP($B$6*C8/100,3)</f>
-        <v>2.6379999999999999</v>
+        <v>23.167999999999999</v>
       </c>
       <c r="C8">
         <f t="shared" ref="C8:C9" si="0">ROUNDUP((100-$C$7-$C$10-$H$2)/SUM($D$8:$D$17)*$D8,3)</f>
-        <v>10.991</v>
+        <v>11.584</v>
       </c>
       <c r="D8" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
         <f>ROUNDUP($B$6*C9/100,3)</f>
-        <v>6.5950000000000006</v>
+        <v>34.75</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>27.476000000000003</v>
+        <v>17.375</v>
       </c>
       <c r="D9" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -690,100 +706,100 @@
       </c>
       <c r="C10">
         <f>ROUNDUP(B10*100/B$6,3)</f>
-        <v>4.1670000000000007</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
         <f t="shared" ref="B11:B17" si="1">ROUNDUP($B$6*C11/100,3)</f>
-        <v>3.9569999999999999</v>
+        <v>28.96</v>
       </c>
       <c r="C11">
         <f>ROUNDUP((100-$C$7-$C$10-$H$2)/SUM($D$8:$D$17)*$D11,3)</f>
-        <v>16.486000000000001</v>
+        <v>14.479999999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
         <f t="shared" si="1"/>
-        <v>3.298</v>
+        <v>20.85</v>
       </c>
       <c r="C12">
         <f t="shared" ref="C12:C17" si="2">ROUNDUP((100-$C$7-$C$10-$H$2)/SUM($D$8:$D$17)*$D12,3)</f>
-        <v>13.738</v>
+        <v>10.425000000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13">
         <f t="shared" si="1"/>
-        <v>1.9789999999999999</v>
+        <v>13.9</v>
       </c>
       <c r="C13">
         <f t="shared" si="2"/>
-        <v>8.2430000000000003</v>
+        <v>6.95</v>
       </c>
       <c r="D13" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14">
         <f t="shared" si="1"/>
-        <v>1.0559999999999998</v>
+        <v>9.2680000000000007</v>
       </c>
       <c r="C14">
         <f t="shared" si="2"/>
-        <v>4.3970000000000002</v>
+        <v>4.6340000000000003</v>
       </c>
       <c r="D14" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15">
         <f t="shared" si="1"/>
-        <v>0.52800000000000002</v>
+        <v>4.6340000000000003</v>
       </c>
       <c r="C15">
         <f t="shared" si="2"/>
-        <v>2.1989999999999998</v>
+        <v>2.3169999999999997</v>
       </c>
       <c r="D15" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16">
         <f t="shared" si="1"/>
-        <v>0.26400000000000001</v>
+        <v>2.3180000000000001</v>
       </c>
       <c r="C16">
         <f t="shared" si="2"/>
-        <v>1.0999999999999999</v>
+        <v>1.1589999999999998</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
@@ -795,11 +811,11 @@
       </c>
       <c r="B17">
         <f t="shared" si="1"/>
-        <v>0.13200000000000001</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="C17">
         <f t="shared" si="2"/>
-        <v>0.55000000000000004</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -811,11 +827,11 @@
       </c>
       <c r="B19">
         <f>SUM(B7:B17)</f>
-        <v>21.605999999999998</v>
+        <v>180.00800000000004</v>
       </c>
       <c r="C19">
         <f>SUM(C7:C17)</f>
-        <v>90.006999999999991</v>
+        <v>90.004000000000005</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -835,7 +851,7 @@
       </c>
       <c r="B22">
         <f>IF(ISNUMBER($B$3)=TRUE(),$B$3*1024,IF(ISNUMBER($C$3)=TRUE(),$C$3,IF(ISNUMBER($D$3)=TRUE(),$D$3/1024,0)))</f>
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -843,12 +859,12 @@
         <v>6</v>
       </c>
       <c r="B23">
-        <f>ROUNDUP((27/1024*$B$6),3)</f>
-        <v>0.63300000000000001</v>
+        <f>IF(ISNUMBER($I$2)=TRUE(),ROUNDUP($B22*$I$2/100,3),ROUNDUP((27/1024*$B$6),3))</f>
+        <v>4</v>
       </c>
       <c r="C23">
-        <f>ROUNDUP((2700/1024*$B$6)/$B$22,3)</f>
-        <v>10.546999999999999</v>
+        <f>IF(ISNUMBER(I2)=TRUE(),ROUNDUP(I2,3),ROUNDUP((2700/1024*$B$6)/$B$22,3))</f>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -857,11 +873,11 @@
       </c>
       <c r="B24">
         <f>ROUNDUP($B$22*C24/100,3)</f>
-        <v>0.48699999999999999</v>
+        <v>2.1669999999999998</v>
       </c>
       <c r="C24">
         <f t="shared" ref="C24:C25" si="3">ROUNDUP((100-$C$23-$C$26-$H$2)/SUM($D$8:$D$17)*$D24,3)</f>
-        <v>8.1020000000000003</v>
+        <v>10.834</v>
       </c>
       <c r="D24">
         <f>D8</f>
@@ -874,15 +890,15 @@
       </c>
       <c r="B25">
         <f>ROUNDUP($B$22*C25/100,3)</f>
-        <v>1.216</v>
+        <v>3.25</v>
       </c>
       <c r="C25">
         <f t="shared" si="3"/>
-        <v>20.254000000000001</v>
+        <v>16.25</v>
       </c>
       <c r="D25">
         <f>D9</f>
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -895,7 +911,7 @@
       </c>
       <c r="C26">
         <f>ROUNDUP(B26*100/B$22,3)</f>
-        <v>16.667000000000002</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -904,15 +920,15 @@
       </c>
       <c r="B27">
         <f t="shared" ref="B27:B33" si="4">ROUNDUP($B$22*C27/100,3)</f>
-        <v>0.73</v>
+        <v>2.7090000000000001</v>
       </c>
       <c r="C27">
         <f>ROUNDUP((100-$C$23-$C$26-$H$2)/SUM($D$8:$D$17)*$D27,3)</f>
-        <v>12.152999999999999</v>
+        <v>13.542</v>
       </c>
       <c r="D27">
         <f t="shared" ref="D27:D33" si="5">D11</f>
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -921,15 +937,15 @@
       </c>
       <c r="B28">
         <f t="shared" si="4"/>
-        <v>0.60799999999999998</v>
+        <v>1.95</v>
       </c>
       <c r="C28">
         <f t="shared" ref="C28:C33" si="6">ROUNDUP((100-$C$23-$C$26-$H$2)/SUM($D$8:$D$17)*$D28,3)</f>
-        <v>10.126999999999999</v>
+        <v>9.75</v>
       </c>
       <c r="D28">
         <f t="shared" si="5"/>
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -938,15 +954,15 @@
       </c>
       <c r="B29">
         <f t="shared" si="4"/>
-        <v>0.36499999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="C29">
         <f t="shared" si="6"/>
-        <v>6.077</v>
+        <v>6.5</v>
       </c>
       <c r="D29">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -955,11 +971,11 @@
       </c>
       <c r="B30">
         <f t="shared" si="4"/>
-        <v>0.19500000000000001</v>
+        <v>0.86699999999999999</v>
       </c>
       <c r="C30">
         <f t="shared" si="6"/>
-        <v>3.2410000000000001</v>
+        <v>4.3340000000000005</v>
       </c>
       <c r="D30">
         <f t="shared" si="5"/>
@@ -972,11 +988,11 @@
       </c>
       <c r="B31">
         <f t="shared" si="4"/>
-        <v>9.8000000000000004E-2</v>
+        <v>0.434</v>
       </c>
       <c r="C31">
         <f t="shared" si="6"/>
-        <v>1.621</v>
+        <v>2.1669999999999998</v>
       </c>
       <c r="D31">
         <f t="shared" si="5"/>
@@ -989,11 +1005,11 @@
       </c>
       <c r="B32">
         <f t="shared" si="4"/>
-        <v>4.9000000000000002E-2</v>
+        <v>0.217</v>
       </c>
       <c r="C32">
         <f t="shared" si="6"/>
-        <v>0.81100000000000005</v>
+        <v>1.0839999999999999</v>
       </c>
       <c r="D32">
         <f t="shared" si="5"/>
@@ -1006,11 +1022,11 @@
       </c>
       <c r="B33">
         <f t="shared" si="4"/>
-        <v>2.5000000000000001E-2</v>
+        <v>0.109</v>
       </c>
       <c r="C33">
         <f t="shared" si="6"/>
-        <v>0.40600000000000003</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="D33">
         <f t="shared" si="5"/>
@@ -1023,11 +1039,11 @@
       </c>
       <c r="B35">
         <f>SUM(B23:B33)</f>
-        <v>5.4060000000000015</v>
+        <v>18.003</v>
       </c>
       <c r="C35">
         <f>SUM(C23:C33)</f>
-        <v>90.006000000000014</v>
+        <v>90.003000000000014</v>
       </c>
     </row>
   </sheetData>
